--- a/app/config/tables/Tea_inventory/forms/Tea_inventory/Tea_inventory.xlsx
+++ b/app/config/tables/Tea_inventory/forms/Tea_inventory/Tea_inventory.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27224"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maegan/Documents/app-designer/app/config/tables/Tea_inventory/forms/Tea_inventory/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="1860" windowWidth="33020" windowHeight="21800" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="4380" yWindow="1860" windowWidth="33020" windowHeight="21800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -15,6 +20,9 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -199,9 +207,6 @@
     <t>select_one</t>
   </si>
   <si>
-    <t>Choose the tea type ID number.</t>
-  </si>
-  <si>
     <t>[ '0' ]</t>
   </si>
   <si>
@@ -260,6 +265,9 @@
   </si>
   <si>
     <t>config/tables/Tea_inventory/html/Tea_inventory_list.html</t>
+  </si>
+  <si>
+    <t>Choose the tea type.</t>
   </si>
 </sst>
 </file>
@@ -372,6 +380,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -699,18 +712,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
     <col min="5" max="5" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30">
+    <row r="1" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>21</v>
       </c>
@@ -780,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>57</v>
       </c>
@@ -791,18 +804,18 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -814,12 +827,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -831,12 +844,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -848,12 +861,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -865,9 +878,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
@@ -879,46 +892,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
         <v>73</v>
-      </c>
-      <c r="F11" t="s">
-        <v>74</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -927,11 +940,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -943,9 +951,9 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -956,7 +964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -964,7 +972,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -972,7 +980,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -982,11 +990,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -998,7 +1001,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
@@ -1009,7 +1012,7 @@
     <col min="7" max="7" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1046,46 +1049,41 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1093,24 +1091,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1119,7 +1117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1136,7 +1134,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1150,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1167,17 +1165,12 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1189,50 +1182,45 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/app/config/tables/Tea_inventory/forms/Tea_inventory/Tea_inventory.xlsx
+++ b/app/config/tables/Tea_inventory/forms/Tea_inventory/Tea_inventory.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maegan/Documents/app-designer/app/config/tables/Tea_inventory/forms/Tea_inventory/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\Tea_inventory\forms\Tea_inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="1860" windowWidth="33020" windowHeight="21800" tabRatio="500"/>
+    <workbookView xWindow="4385" yWindow="1859" windowWidth="33015" windowHeight="21796" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>clause</t>
   </si>
@@ -51,42 +51,12 @@
     <t>display.text</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>constraint_message</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
-    <t>appearance</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>read_only</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>audio</t>
-  </si>
-  <si>
-    <t>media::image</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -126,9 +96,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -268,12 +235,18 @@
   </si>
   <si>
     <t>Choose the tea type.</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -346,11 +319,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -383,6 +353,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -710,20 +683,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="34.77734375" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -740,200 +714,167 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="b">
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" t="b">
+        <v>62</v>
+      </c>
+      <c r="G11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -948,44 +889,47 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1001,10 +945,10 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
@@ -1012,73 +956,73 @@
     <col min="7" max="7" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1095,77 +1039,77 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1178,46 +1122,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/Tea_inventory/forms/Tea_inventory/Tea_inventory.xlsx
+++ b/app/config/tables/Tea_inventory/forms/Tea_inventory/Tea_inventory.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4385" yWindow="1859" windowWidth="33015" windowHeight="21796" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="4385" yWindow="1859" windowWidth="33015" windowHeight="21796" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>clause</t>
   </si>
@@ -159,9 +159,6 @@
     <t>selectionArgs</t>
   </si>
   <si>
-    <t>auxillaryHash</t>
-  </si>
-  <si>
     <t>Tea_type_list</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>_id &gt;= ?</t>
   </si>
   <si>
-    <t>'_id&gt;='+opendatakit.encodeURIValue(0)</t>
-  </si>
-  <si>
     <t>House_id</t>
   </si>
   <si>
@@ -241,6 +235,15 @@
   </si>
   <si>
     <t>display.title.text</t>
+  </si>
+  <si>
+    <t>openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>{}</t>
   </si>
 </sst>
 </file>
@@ -714,7 +717,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -736,16 +739,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -753,10 +756,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -770,10 +773,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -787,10 +790,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -804,10 +807,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -821,7 +824,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -835,13 +838,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -849,13 +852,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -863,16 +866,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -905,7 +908,7 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -939,10 +942,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -953,10 +956,11 @@
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="35.44140625" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -976,53 +980,62 @@
         <v>41</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1046,13 +1059,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1092,7 +1105,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1109,7 +1122,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1122,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -1133,10 +1146,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>5</v>
@@ -1144,24 +1157,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/Tea_inventory/forms/Tea_inventory/Tea_inventory.xlsx
+++ b/app/config/tables/Tea_inventory/forms/Tea_inventory/Tea_inventory.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>clause</t>
   </si>
@@ -48,9 +48,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>display.text</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>select_one</t>
   </si>
   <si>
-    <t>[ '0' ]</t>
-  </si>
-  <si>
     <t>What is the price of a 16 ounce {{data.Name}}?</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
     <t>decimal</t>
   </si>
   <si>
-    <t>_id &gt;= ?</t>
-  </si>
-  <si>
     <t>House_id</t>
   </si>
   <si>
@@ -244,6 +235,12 @@
   </si>
   <si>
     <t>{}</t>
+  </si>
+  <si>
+    <t>1=1</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -717,21 +714,21 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -739,16 +736,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -756,16 +753,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -773,16 +770,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -790,16 +787,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -807,16 +804,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -824,13 +821,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -838,13 +835,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -852,13 +849,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -866,16 +863,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -902,37 +899,37 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +942,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -962,80 +959,80 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1059,70 +1056,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1135,46 +1132,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/Tea_inventory/forms/Tea_inventory/Tea_inventory.xlsx
+++ b/app/config/tables/Tea_inventory/forms/Tea_inventory/Tea_inventory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -74,25 +74,25 @@
     <t xml:space="preserve">Bags</t>
   </si>
   <si>
-    <t xml:space="preserve">Is {{data.Name}} served with bags?</t>
+    <t xml:space="preserve">Is this tea served with bags?</t>
   </si>
   <si>
     <t xml:space="preserve">Cold</t>
   </si>
   <si>
-    <t xml:space="preserve">Is {{data.Name}} served cold?</t>
+    <t xml:space="preserve">Is this tea served cold?</t>
   </si>
   <si>
     <t xml:space="preserve">Hot</t>
   </si>
   <si>
-    <t xml:space="preserve">Is {{data.Name}} served hot?</t>
+    <t xml:space="preserve">Is this tea served hot?</t>
   </si>
   <si>
     <t xml:space="preserve">Loose_Leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">Is {{data.Name}} loose leaf?</t>
+    <t xml:space="preserve">Is this tea loose leaf?</t>
   </si>
   <si>
     <t xml:space="preserve">decimal</t>
@@ -101,19 +101,19 @@
     <t xml:space="preserve">Price_8oz</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the price of an 8 ounce {{data.Name}}?</t>
+    <t xml:space="preserve">What is the price of an 8 ounce cup?</t>
   </si>
   <si>
     <t xml:space="preserve">Price_12oz</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the price of a 12 ounce {{data.Name}}?</t>
+    <t xml:space="preserve">What is the price of an 12 ounce cup?</t>
   </si>
   <si>
     <t xml:space="preserve">Price_16oz</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the price of a 16 ounce {{data.Name}}?</t>
+    <t xml:space="preserve">What is the price of an 16 ounce cup?</t>
   </si>
   <si>
     <t xml:space="preserve">Tea_house_list</t>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tea Inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
   </si>
   <si>
     <t xml:space="preserve">query_name</t>
@@ -430,7 +433,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B19" activeCellId="1" sqref="E4 B19"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -585,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
         <v>23</v>
       </c>
@@ -600,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
         <v>23</v>
       </c>
@@ -649,10 +652,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="E4 C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -695,6 +698,14 @@
       </c>
       <c r="C4" s="0" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>20170729</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +727,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="E4 F4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -734,28 +745,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,25 +774,25 @@
         <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -789,25 +800,25 @@
         <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -828,7 +839,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -840,13 +851,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>2</v>
@@ -857,53 +868,53 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -925,7 +936,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="E4 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -938,10 +949,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>35</v>
@@ -952,10 +963,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,10 +974,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
